--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3452,28 +3452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3631.172741123592</v>
+        <v>3820.936240423637</v>
       </c>
       <c r="AB2" t="n">
-        <v>4968.330740440853</v>
+        <v>5227.973531957928</v>
       </c>
       <c r="AC2" t="n">
-        <v>4494.160227668979</v>
+        <v>4729.023075574602</v>
       </c>
       <c r="AD2" t="n">
-        <v>3631172.741123592</v>
+        <v>3820936.240423637</v>
       </c>
       <c r="AE2" t="n">
-        <v>4968330.740440853</v>
+        <v>5227973.531957928</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.048201876724591e-07</v>
+        <v>1.016114182990337e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.12174479166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>4494160.227668979</v>
+        <v>4729023.075574602</v>
       </c>
     </row>
     <row r="3">
@@ -3558,28 +3558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1725.388723022099</v>
+        <v>1846.085279958276</v>
       </c>
       <c r="AB3" t="n">
-        <v>2360.752969617102</v>
+        <v>2525.895323573468</v>
       </c>
       <c r="AC3" t="n">
-        <v>2135.446019534448</v>
+        <v>2284.827419007968</v>
       </c>
       <c r="AD3" t="n">
-        <v>1725388.723022099</v>
+        <v>1846085.279958276</v>
       </c>
       <c r="AE3" t="n">
-        <v>2360752.969617102</v>
+        <v>2525895.323573468</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.112549656418734e-06</v>
+        <v>1.603923248710142e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.31770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2135446.019534448</v>
+        <v>2284827.419007968</v>
       </c>
     </row>
     <row r="4">
@@ -3664,28 +3664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1384.473261844239</v>
+        <v>1496.536361476381</v>
       </c>
       <c r="AB4" t="n">
-        <v>1894.297395504886</v>
+        <v>2047.627072296617</v>
       </c>
       <c r="AC4" t="n">
-        <v>1713.508310740991</v>
+        <v>1852.204418379273</v>
       </c>
       <c r="AD4" t="n">
-        <v>1384473.261844239</v>
+        <v>1496536.361476381</v>
       </c>
       <c r="AE4" t="n">
-        <v>1894297.395504886</v>
+        <v>2047627.072296617</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.269964789074154e-06</v>
+        <v>1.830863043718979e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.93229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1713508.310740991</v>
+        <v>1852204.418379273</v>
       </c>
     </row>
     <row r="5">
@@ -3770,28 +3770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1241.028240596588</v>
+        <v>1344.372721087226</v>
       </c>
       <c r="AB5" t="n">
-        <v>1698.029589086146</v>
+        <v>1839.430066530141</v>
       </c>
       <c r="AC5" t="n">
-        <v>1535.97202830326</v>
+        <v>1663.877442636816</v>
       </c>
       <c r="AD5" t="n">
-        <v>1241028.240596588</v>
+        <v>1344372.721087226</v>
       </c>
       <c r="AE5" t="n">
-        <v>1698029.589086145</v>
+        <v>1839430.066530141</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.353807487250054e-06</v>
+        <v>1.951736078071253e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.451171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1535972.02830326</v>
+        <v>1663877.442636816</v>
       </c>
     </row>
     <row r="6">
@@ -3876,28 +3876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1153.068636964812</v>
+        <v>1248.035682715131</v>
       </c>
       <c r="AB6" t="n">
-        <v>1577.679378893309</v>
+        <v>1707.617480539263</v>
       </c>
       <c r="AC6" t="n">
-        <v>1427.107873258646</v>
+        <v>1544.644864852781</v>
       </c>
       <c r="AD6" t="n">
-        <v>1153068.636964812</v>
+        <v>1248035.682715131</v>
       </c>
       <c r="AE6" t="n">
-        <v>1577679.378893309</v>
+        <v>1707617.480539263</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.404972073664745e-06</v>
+        <v>2.025498241573532e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.630859375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1427107.873258646</v>
+        <v>1544644.864852781</v>
       </c>
     </row>
     <row r="7">
@@ -3982,28 +3982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1088.683301638798</v>
+        <v>1175.017069102184</v>
       </c>
       <c r="AB7" t="n">
-        <v>1489.584522619734</v>
+        <v>1607.710192040149</v>
       </c>
       <c r="AC7" t="n">
-        <v>1347.420666425913</v>
+        <v>1454.272587747262</v>
       </c>
       <c r="AD7" t="n">
-        <v>1088683.301638798</v>
+        <v>1175017.069102184</v>
       </c>
       <c r="AE7" t="n">
-        <v>1489584.522619734</v>
+        <v>1607710.192040149</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.443625611576575e-06</v>
+        <v>2.08122367166467e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.0546875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1347420.666425913</v>
+        <v>1454272.587747262</v>
       </c>
     </row>
     <row r="8">
@@ -4088,28 +4088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1030.485194099471</v>
+        <v>1125.366898995217</v>
       </c>
       <c r="AB8" t="n">
-        <v>1409.955304365127</v>
+        <v>1539.776638888883</v>
       </c>
       <c r="AC8" t="n">
-        <v>1275.391149001217</v>
+        <v>1392.822517563413</v>
       </c>
       <c r="AD8" t="n">
-        <v>1030485.194099471</v>
+        <v>1125366.898995217</v>
       </c>
       <c r="AE8" t="n">
-        <v>1409955.304365127</v>
+        <v>1539776.638888883</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.469488002884731e-06</v>
+        <v>2.118508560880238e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.68359375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1275391.149001217</v>
+        <v>1392822.517563413</v>
       </c>
     </row>
     <row r="9">
@@ -4194,28 +4194,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>992.0684026524447</v>
+        <v>1078.316829261259</v>
       </c>
       <c r="AB9" t="n">
-        <v>1357.391755478083</v>
+        <v>1475.4006577763</v>
       </c>
       <c r="AC9" t="n">
-        <v>1227.844191446548</v>
+        <v>1334.590489735958</v>
       </c>
       <c r="AD9" t="n">
-        <v>992068.4026524447</v>
+        <v>1078316.829261259</v>
       </c>
       <c r="AE9" t="n">
-        <v>1357391.755478083</v>
+        <v>1475400.6577763</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.488814771840646e-06</v>
+        <v>2.146371275925807e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.41341145833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1227844.191446548</v>
+        <v>1334590.489735958</v>
       </c>
     </row>
     <row r="10">
@@ -4300,28 +4300,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>976.8344253199064</v>
+        <v>1063.082851928721</v>
       </c>
       <c r="AB10" t="n">
-        <v>1336.547955616056</v>
+        <v>1454.556857914274</v>
       </c>
       <c r="AC10" t="n">
-        <v>1208.989694588897</v>
+        <v>1315.735992878307</v>
       </c>
       <c r="AD10" t="n">
-        <v>976834.4253199063</v>
+        <v>1063082.851928721</v>
       </c>
       <c r="AE10" t="n">
-        <v>1336547.955616056</v>
+        <v>1454556.857914274</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.495350394192887e-06</v>
+        <v>2.155793450095807e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.32552083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1208989.694588897</v>
+        <v>1315735.992878307</v>
       </c>
     </row>
     <row r="11">
@@ -4406,28 +4406,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>977.0946656359492</v>
+        <v>1063.343092244764</v>
       </c>
       <c r="AB11" t="n">
-        <v>1336.904027897459</v>
+        <v>1454.912930195676</v>
       </c>
       <c r="AC11" t="n">
-        <v>1209.311783831512</v>
+        <v>1316.058082120923</v>
       </c>
       <c r="AD11" t="n">
-        <v>977094.6656359492</v>
+        <v>1063343.092244764</v>
       </c>
       <c r="AE11" t="n">
-        <v>1336904.027897459</v>
+        <v>1454912.930195676</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.496750884696939e-06</v>
+        <v>2.157812487417949e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.30598958333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1209311.783831513</v>
+        <v>1316058.082120923</v>
       </c>
     </row>
   </sheetData>
@@ -4703,28 +4703,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2518.239479589887</v>
+        <v>2669.667852233921</v>
       </c>
       <c r="AB2" t="n">
-        <v>3445.566352860094</v>
+        <v>3652.757332859986</v>
       </c>
       <c r="AC2" t="n">
-        <v>3116.726336025746</v>
+        <v>3304.143299688806</v>
       </c>
       <c r="AD2" t="n">
-        <v>2518239.479589887</v>
+        <v>2669667.852233921</v>
       </c>
       <c r="AE2" t="n">
-        <v>3445566.352860094</v>
+        <v>3652757.332859986</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.661819520782965e-07</v>
+        <v>1.268057792984599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.298828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>3116726.336025746</v>
+        <v>3304143.299688806</v>
       </c>
     </row>
     <row r="3">
@@ -4809,28 +4809,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1383.925582092264</v>
+        <v>1493.181496106712</v>
       </c>
       <c r="AB3" t="n">
-        <v>1893.548035906308</v>
+        <v>2043.036797491621</v>
       </c>
       <c r="AC3" t="n">
-        <v>1712.83046897077</v>
+        <v>1848.052232959174</v>
       </c>
       <c r="AD3" t="n">
-        <v>1383925.582092264</v>
+        <v>1493181.496106712</v>
       </c>
       <c r="AE3" t="n">
-        <v>1893548.035906308</v>
+        <v>2043036.797491621</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.244701919762824e-06</v>
+        <v>1.822196786149925e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.26041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1712830.46897077</v>
+        <v>1848052.232959175</v>
       </c>
     </row>
     <row r="4">
@@ -4915,28 +4915,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1143.459252677513</v>
+        <v>1244.382994482978</v>
       </c>
       <c r="AB4" t="n">
-        <v>1564.531395375312</v>
+        <v>1702.619711354799</v>
       </c>
       <c r="AC4" t="n">
-        <v>1415.214714834296</v>
+        <v>1540.12407574487</v>
       </c>
       <c r="AD4" t="n">
-        <v>1143459.252677513</v>
+        <v>1244382.994482978</v>
       </c>
       <c r="AE4" t="n">
-        <v>1564531.395375312</v>
+        <v>1702619.711354799</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.385813854640878e-06</v>
+        <v>2.02877935032817e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.68880208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1415214.714834296</v>
+        <v>1540124.07574487</v>
       </c>
     </row>
     <row r="5">
@@ -5021,28 +5021,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1028.597112036301</v>
+        <v>1121.188771141334</v>
       </c>
       <c r="AB5" t="n">
-        <v>1407.371947189996</v>
+        <v>1534.059940033208</v>
       </c>
       <c r="AC5" t="n">
-        <v>1273.054343809116</v>
+        <v>1387.651412423086</v>
       </c>
       <c r="AD5" t="n">
-        <v>1028597.112036301</v>
+        <v>1121188.771141334</v>
       </c>
       <c r="AE5" t="n">
-        <v>1407371.947189996</v>
+        <v>1534059.940033208</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.461633751204378e-06</v>
+        <v>2.139776826632018e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.51041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1273054.343809116</v>
+        <v>1387651.412423086</v>
       </c>
     </row>
     <row r="6">
@@ -5127,28 +5127,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>947.7563067812785</v>
+        <v>1040.26262503174</v>
       </c>
       <c r="AB6" t="n">
-        <v>1296.761990995454</v>
+        <v>1423.333216716468</v>
       </c>
       <c r="AC6" t="n">
-        <v>1173.000846591732</v>
+        <v>1287.492292173763</v>
       </c>
       <c r="AD6" t="n">
-        <v>947756.3067812785</v>
+        <v>1040262.62503174</v>
       </c>
       <c r="AE6" t="n">
-        <v>1296761.990995454</v>
+        <v>1423333.216716468</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.508091547697426e-06</v>
+        <v>2.207789293004185e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.84635416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1173000.846591732</v>
+        <v>1287492.292173764</v>
       </c>
     </row>
     <row r="7">
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>899.4285602961149</v>
+        <v>991.7642863459846</v>
       </c>
       <c r="AB7" t="n">
-        <v>1230.637836184752</v>
+        <v>1356.975650130919</v>
       </c>
       <c r="AC7" t="n">
-        <v>1113.18748831033</v>
+        <v>1227.46779860971</v>
       </c>
       <c r="AD7" t="n">
-        <v>899428.5602961149</v>
+        <v>991764.2863459846</v>
       </c>
       <c r="AE7" t="n">
-        <v>1230637.836184752</v>
+        <v>1356975.650130919</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.535039001380505e-06</v>
+        <v>2.247239351461221e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.48177083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1113187.48831033</v>
+        <v>1227467.79860971</v>
       </c>
     </row>
     <row r="8">
@@ -5339,28 +5339,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>895.9068816974878</v>
+        <v>979.9958659014976</v>
       </c>
       <c r="AB8" t="n">
-        <v>1225.819320160616</v>
+        <v>1340.873578092705</v>
       </c>
       <c r="AC8" t="n">
-        <v>1108.828844692707</v>
+        <v>1212.902485727423</v>
       </c>
       <c r="AD8" t="n">
-        <v>895906.8816974879</v>
+        <v>979995.8659014977</v>
       </c>
       <c r="AE8" t="n">
-        <v>1225819.320160616</v>
+        <v>1340873.578092705</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.539192193166785e-06</v>
+        <v>2.25331946799761e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.42643229166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1108828.844692708</v>
+        <v>1212902.485727423</v>
       </c>
     </row>
     <row r="9">
@@ -5445,28 +5445,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>899.7110493783438</v>
+        <v>983.8000335823535</v>
       </c>
       <c r="AB9" t="n">
-        <v>1231.024350209597</v>
+        <v>1346.078608141685</v>
       </c>
       <c r="AC9" t="n">
-        <v>1113.537113979119</v>
+        <v>1217.610755013834</v>
       </c>
       <c r="AD9" t="n">
-        <v>899711.0493783437</v>
+        <v>983800.0335823535</v>
       </c>
       <c r="AE9" t="n">
-        <v>1231024.350209597</v>
+        <v>1346078.608141685</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.538999021455796e-06</v>
+        <v>2.253036671879639e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.4296875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1113537.113979119</v>
+        <v>1217610.755013834</v>
       </c>
     </row>
   </sheetData>
@@ -5742,28 +5742,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>995.4780513330668</v>
+        <v>1096.282212677593</v>
       </c>
       <c r="AB2" t="n">
-        <v>1362.056987225993</v>
+        <v>1499.981687943307</v>
       </c>
       <c r="AC2" t="n">
-        <v>1232.064180024132</v>
+        <v>1356.825540883518</v>
       </c>
       <c r="AD2" t="n">
-        <v>995478.0513330668</v>
+        <v>1096282.212677593</v>
       </c>
       <c r="AE2" t="n">
-        <v>1362056.987225994</v>
+        <v>1499981.687943307</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.387612708267588e-06</v>
+        <v>2.146808136771536e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.283203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1232064.180024132</v>
+        <v>1356825.540883518</v>
       </c>
     </row>
     <row r="3">
@@ -5848,28 +5848,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>720.4557330895898</v>
+        <v>805.8959091662283</v>
       </c>
       <c r="AB3" t="n">
-        <v>985.7593182769006</v>
+        <v>1102.662336539498</v>
       </c>
       <c r="AC3" t="n">
-        <v>891.679832462445</v>
+        <v>997.4257907364766</v>
       </c>
       <c r="AD3" t="n">
-        <v>720455.7330895897</v>
+        <v>805895.9091662283</v>
       </c>
       <c r="AE3" t="n">
-        <v>985759.3182769006</v>
+        <v>1102662.336539498</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.627305963660762e-06</v>
+        <v>2.517643188902013e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.55924479166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>891679.832462445</v>
+        <v>997425.7907364767</v>
       </c>
     </row>
     <row r="4">
@@ -5954,28 +5954,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>716.2297282166709</v>
+        <v>801.499312092717</v>
       </c>
       <c r="AB4" t="n">
-        <v>979.9771119715963</v>
+        <v>1096.646718459347</v>
       </c>
       <c r="AC4" t="n">
-        <v>886.4494718115413</v>
+        <v>991.984294802922</v>
       </c>
       <c r="AD4" t="n">
-        <v>716229.7282166709</v>
+        <v>801499.312092717</v>
       </c>
       <c r="AE4" t="n">
-        <v>979977.1119715963</v>
+        <v>1096646.718459347</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.634634714275301e-06</v>
+        <v>2.528981670711758e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.46158854166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>886449.4718115414</v>
+        <v>991984.2948029221</v>
       </c>
     </row>
   </sheetData>
@@ -6251,28 +6251,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1412.214011667752</v>
+        <v>1532.450653489349</v>
       </c>
       <c r="AB2" t="n">
-        <v>1932.253513248925</v>
+        <v>2096.7665910555</v>
       </c>
       <c r="AC2" t="n">
-        <v>1747.841949879285</v>
+        <v>1896.654130435556</v>
       </c>
       <c r="AD2" t="n">
-        <v>1412214.011667752</v>
+        <v>1532450.653489349</v>
       </c>
       <c r="AE2" t="n">
-        <v>1932253.513248925</v>
+        <v>2096766.5910555</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.176435291025888e-06</v>
+        <v>1.777939559586709e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.52864583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1747841.949879285</v>
+        <v>1896654.130435556</v>
       </c>
     </row>
     <row r="3">
@@ -6357,28 +6357,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>922.320606145394</v>
+        <v>1018.322259231165</v>
       </c>
       <c r="AB3" t="n">
-        <v>1261.959743241522</v>
+        <v>1393.313440287496</v>
       </c>
       <c r="AC3" t="n">
-        <v>1141.520076518174</v>
+        <v>1260.337561074152</v>
       </c>
       <c r="AD3" t="n">
-        <v>922320.606145394</v>
+        <v>1018322.259231165</v>
       </c>
       <c r="AE3" t="n">
-        <v>1261959.743241522</v>
+        <v>1393313.440287496</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.492557166773948e-06</v>
+        <v>2.255692643696511e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.48697916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1141520.076518174</v>
+        <v>1260337.561074152</v>
       </c>
     </row>
     <row r="4">
@@ -6463,28 +6463,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>791.7615056304392</v>
+        <v>871.9762502564361</v>
       </c>
       <c r="AB4" t="n">
-        <v>1083.323022055956</v>
+        <v>1193.076374478021</v>
       </c>
       <c r="AC4" t="n">
-        <v>979.9321932843461</v>
+        <v>1079.210839791046</v>
       </c>
       <c r="AD4" t="n">
-        <v>791761.5056304391</v>
+        <v>871976.2502564361</v>
       </c>
       <c r="AE4" t="n">
-        <v>1083323.022055957</v>
+        <v>1193076.374478021</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.597312491548909e-06</v>
+        <v>2.414008734190823e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.01236979166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>979932.1932843461</v>
+        <v>1079210.839791046</v>
       </c>
     </row>
     <row r="5">
@@ -6569,28 +6569,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>774.6005494678286</v>
+        <v>862.7513292424472</v>
       </c>
       <c r="AB5" t="n">
-        <v>1059.842644746319</v>
+        <v>1180.454430571889</v>
       </c>
       <c r="AC5" t="n">
-        <v>958.6927502302243</v>
+        <v>1067.793516496306</v>
       </c>
       <c r="AD5" t="n">
-        <v>774600.5494678286</v>
+        <v>862751.3292424473</v>
       </c>
       <c r="AE5" t="n">
-        <v>1059842.644746319</v>
+        <v>1180454.430571889</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.606591998664801e-06</v>
+        <v>2.428032797325161e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.89192708333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>958692.7502302243</v>
+        <v>1067793.516496306</v>
       </c>
     </row>
     <row r="6">
@@ -6675,28 +6675,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>777.4041507414844</v>
+        <v>865.554930516103</v>
       </c>
       <c r="AB6" t="n">
-        <v>1063.678655695094</v>
+        <v>1184.290441520664</v>
       </c>
       <c r="AC6" t="n">
-        <v>962.1626576779232</v>
+        <v>1071.263423944005</v>
       </c>
       <c r="AD6" t="n">
-        <v>777404.1507414844</v>
+        <v>865554.930516103</v>
       </c>
       <c r="AE6" t="n">
-        <v>1063678.655695094</v>
+        <v>1184290.441520664</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.60844790008798e-06</v>
+        <v>2.430837609952029e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.86588541666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>962162.6576779232</v>
+        <v>1071263.423944005</v>
       </c>
     </row>
   </sheetData>
@@ -6972,28 +6972,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>736.3241466644201</v>
+        <v>826.8592941095218</v>
       </c>
       <c r="AB2" t="n">
-        <v>1007.471181794982</v>
+        <v>1131.345364658184</v>
       </c>
       <c r="AC2" t="n">
-        <v>911.3195461991528</v>
+        <v>1023.371350908398</v>
       </c>
       <c r="AD2" t="n">
-        <v>736324.1466644201</v>
+        <v>826859.2941095218</v>
       </c>
       <c r="AE2" t="n">
-        <v>1007471.181794982</v>
+        <v>1131345.364658184</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.568085913698298e-06</v>
+        <v>2.478340954425456e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.23567708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>911319.5461991528</v>
+        <v>1023371.350908398</v>
       </c>
     </row>
     <row r="3">
@@ -7078,28 +7078,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>676.73121412957</v>
+        <v>759.7928907921022</v>
       </c>
       <c r="AB3" t="n">
-        <v>925.9335024461665</v>
+        <v>1039.582152878395</v>
       </c>
       <c r="AC3" t="n">
-        <v>837.5637085285363</v>
+        <v>940.3658912703959</v>
       </c>
       <c r="AD3" t="n">
-        <v>676731.2141295701</v>
+        <v>759792.8907921022</v>
       </c>
       <c r="AE3" t="n">
-        <v>925933.5024461665</v>
+        <v>1039582.152878395</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.637037367966137e-06</v>
+        <v>2.587317899812427e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.255859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>837563.7085285363</v>
+        <v>940365.8912703958</v>
       </c>
     </row>
   </sheetData>
@@ -7375,28 +7375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2757.808407270171</v>
+        <v>2927.121378609834</v>
       </c>
       <c r="AB2" t="n">
-        <v>3773.355128747442</v>
+        <v>4005.016605695503</v>
       </c>
       <c r="AC2" t="n">
-        <v>3413.231411196829</v>
+        <v>3622.783441923883</v>
       </c>
       <c r="AD2" t="n">
-        <v>2757808.407270171</v>
+        <v>2927121.378609834</v>
       </c>
       <c r="AE2" t="n">
-        <v>3773355.128747442</v>
+        <v>4005016.605695503</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.226024831007828e-07</v>
+        <v>1.199260881334702e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.880859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>3413231.411196828</v>
+        <v>3622783.441923883</v>
       </c>
     </row>
     <row r="3">
@@ -7481,28 +7481,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1458.865816526242</v>
+        <v>1569.030191007966</v>
       </c>
       <c r="AB3" t="n">
-        <v>1996.084570788684</v>
+        <v>2146.816328063772</v>
       </c>
       <c r="AC3" t="n">
-        <v>1805.581060874902</v>
+        <v>1941.927190789005</v>
       </c>
       <c r="AD3" t="n">
-        <v>1458865.816526242</v>
+        <v>1569030.191007966</v>
       </c>
       <c r="AE3" t="n">
-        <v>1996084.570788685</v>
+        <v>2146816.328063772</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.211027067278462e-06</v>
+        <v>1.76553975688232e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.72916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1805581.060874902</v>
+        <v>1941927.190789005</v>
       </c>
     </row>
     <row r="4">
@@ -7587,28 +7587,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1199.809932098356</v>
+        <v>1301.414783073068</v>
       </c>
       <c r="AB4" t="n">
-        <v>1641.632880975431</v>
+        <v>1780.653120568699</v>
       </c>
       <c r="AC4" t="n">
-        <v>1484.957742861354</v>
+        <v>1610.710085903973</v>
       </c>
       <c r="AD4" t="n">
-        <v>1199809.932098356</v>
+        <v>1301414.783073068</v>
       </c>
       <c r="AE4" t="n">
-        <v>1641632.880975431</v>
+        <v>1780653.120568699</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.356040188281218e-06</v>
+        <v>1.976952397704064e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.97526041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1484957.742861354</v>
+        <v>1610710.085903973</v>
       </c>
     </row>
     <row r="5">
@@ -7693,28 +7693,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1080.035248001186</v>
+        <v>1173.251257178029</v>
       </c>
       <c r="AB5" t="n">
-        <v>1477.751874107552</v>
+        <v>1605.294130263396</v>
       </c>
       <c r="AC5" t="n">
-        <v>1336.717309280508</v>
+        <v>1452.087111515519</v>
       </c>
       <c r="AD5" t="n">
-        <v>1080035.248001186</v>
+        <v>1173251.257178029</v>
       </c>
       <c r="AE5" t="n">
-        <v>1477751.874107552</v>
+        <v>1605294.130263396</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.432901928324263e-06</v>
+        <v>2.089008074654467e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.74479166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1336717.309280508</v>
+        <v>1452087.111515519</v>
       </c>
     </row>
     <row r="6">
@@ -7799,28 +7799,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1006.079564300875</v>
+        <v>1090.821480333829</v>
       </c>
       <c r="AB6" t="n">
-        <v>1376.562444974292</v>
+        <v>1492.510073040061</v>
       </c>
       <c r="AC6" t="n">
-        <v>1245.18525724347</v>
+        <v>1350.067006420161</v>
       </c>
       <c r="AD6" t="n">
-        <v>1006079.564300875</v>
+        <v>1090821.480333829</v>
       </c>
       <c r="AE6" t="n">
-        <v>1376562.444974292</v>
+        <v>1492510.073040061</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.481143917093497e-06</v>
+        <v>2.15933940863081e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.03515625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1245185.25724347</v>
+        <v>1350067.006420161</v>
       </c>
     </row>
     <row r="7">
@@ -7905,28 +7905,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>941.0495347242975</v>
+        <v>1034.180203046569</v>
       </c>
       <c r="AB7" t="n">
-        <v>1287.585489585191</v>
+        <v>1415.010978618837</v>
       </c>
       <c r="AC7" t="n">
-        <v>1164.700137596765</v>
+        <v>1279.964316799837</v>
       </c>
       <c r="AD7" t="n">
-        <v>941049.5347242975</v>
+        <v>1034180.203046569</v>
       </c>
       <c r="AE7" t="n">
-        <v>1287585.489585191</v>
+        <v>1415010.978618837</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.513496679403023e-06</v>
+        <v>2.206506057210183e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.5859375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1164700.137596765</v>
+        <v>1279964.316799837</v>
       </c>
     </row>
     <row r="8">
@@ -8011,28 +8011,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>912.405801980674</v>
+        <v>997.0623771590568</v>
       </c>
       <c r="AB8" t="n">
-        <v>1248.393870773063</v>
+        <v>1364.224731716635</v>
       </c>
       <c r="AC8" t="n">
-        <v>1129.248911878283</v>
+        <v>1234.025038023035</v>
       </c>
       <c r="AD8" t="n">
-        <v>912405.801980674</v>
+        <v>997062.3771590568</v>
       </c>
       <c r="AE8" t="n">
-        <v>1248393.870773063</v>
+        <v>1364224.731716635</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.526801513607236e-06</v>
+        <v>2.225902992572706e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.40690104166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1129248.911878283</v>
+        <v>1234025.038023036</v>
       </c>
     </row>
     <row r="9">
@@ -8117,28 +8117,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>913.8516219690915</v>
+        <v>998.5081971474741</v>
       </c>
       <c r="AB9" t="n">
-        <v>1250.372105466292</v>
+        <v>1366.202966409864</v>
       </c>
       <c r="AC9" t="n">
-        <v>1131.03834662886</v>
+        <v>1235.814472773612</v>
       </c>
       <c r="AD9" t="n">
-        <v>913851.6219690915</v>
+        <v>998508.1971474742</v>
       </c>
       <c r="AE9" t="n">
-        <v>1250372.105466292</v>
+        <v>1366202.966409864</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.529194469399361e-06</v>
+        <v>2.229391650012009e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.37434895833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1131038.34662886</v>
+        <v>1235814.472773612</v>
       </c>
     </row>
   </sheetData>
@@ -8414,28 +8414,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>659.9028247939906</v>
+        <v>741.6918960940235</v>
       </c>
       <c r="AB2" t="n">
-        <v>902.9081577410864</v>
+        <v>1014.815573372957</v>
       </c>
       <c r="AC2" t="n">
-        <v>816.7358704058347</v>
+        <v>917.9629993528443</v>
       </c>
       <c r="AD2" t="n">
-        <v>659902.8247939906</v>
+        <v>741691.8960940235</v>
       </c>
       <c r="AE2" t="n">
-        <v>902908.1577410863</v>
+        <v>1014815.573372957</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.616434839505929e-06</v>
+        <v>2.589908309678891e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.06966145833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>816735.8704058348</v>
+        <v>917962.9993528443</v>
       </c>
     </row>
     <row r="3">
@@ -8520,28 +8520,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>652.9673644939135</v>
+        <v>742.1063674118673</v>
       </c>
       <c r="AB3" t="n">
-        <v>893.4187549876067</v>
+        <v>1015.382671315215</v>
       </c>
       <c r="AC3" t="n">
-        <v>808.1521229326867</v>
+        <v>918.4759742634201</v>
       </c>
       <c r="AD3" t="n">
-        <v>652967.3644939135</v>
+        <v>742106.3674118672</v>
       </c>
       <c r="AE3" t="n">
-        <v>893418.7549876067</v>
+        <v>1015382.671315215</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.622620615236446e-06</v>
+        <v>2.599819375423534e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.98177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>808152.1229326867</v>
+        <v>918475.9742634201</v>
       </c>
     </row>
   </sheetData>
@@ -8817,28 +8817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1908.752869720743</v>
+        <v>2040.399023526289</v>
       </c>
       <c r="AB2" t="n">
-        <v>2611.639884585414</v>
+        <v>2791.763960040573</v>
       </c>
       <c r="AC2" t="n">
-        <v>2362.388639460181</v>
+        <v>2525.321925959627</v>
       </c>
       <c r="AD2" t="n">
-        <v>1908752.869720743</v>
+        <v>2040399.023526289</v>
       </c>
       <c r="AE2" t="n">
-        <v>2611639.884585414</v>
+        <v>2791763.960040573</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.00777180114316e-06</v>
+        <v>1.496383103186336e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.14518229166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2362388.639460181</v>
+        <v>2525321.925959627</v>
       </c>
     </row>
     <row r="3">
@@ -8923,28 +8923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1145.415280688256</v>
+        <v>1252.27636566476</v>
       </c>
       <c r="AB3" t="n">
-        <v>1567.207719193475</v>
+        <v>1713.419770036674</v>
       </c>
       <c r="AC3" t="n">
-        <v>1417.635614063498</v>
+        <v>1549.893391984124</v>
       </c>
       <c r="AD3" t="n">
-        <v>1145415.280688256</v>
+        <v>1252276.36566476</v>
       </c>
       <c r="AE3" t="n">
-        <v>1567207.719193476</v>
+        <v>1713419.770036674</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.358854936764081e-06</v>
+        <v>2.017686508739945e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.837890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1417635.614063498</v>
+        <v>1549893.391984124</v>
       </c>
     </row>
     <row r="4">
@@ -9029,28 +9029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>960.7372250743222</v>
+        <v>1051.302566116024</v>
       </c>
       <c r="AB4" t="n">
-        <v>1314.523056081694</v>
+        <v>1438.438551155812</v>
       </c>
       <c r="AC4" t="n">
-        <v>1189.066820553953</v>
+        <v>1301.155994694687</v>
       </c>
       <c r="AD4" t="n">
-        <v>960737.2250743222</v>
+        <v>1051302.566116024</v>
       </c>
       <c r="AE4" t="n">
-        <v>1314523.056081694</v>
+        <v>1438438.551155812</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.48762522516926e-06</v>
+        <v>2.208890195470774e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.77408854166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1189066.820553953</v>
+        <v>1301155.994694686</v>
       </c>
     </row>
     <row r="5">
@@ -9135,28 +9135,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>861.063813709442</v>
+        <v>951.5438138965725</v>
       </c>
       <c r="AB5" t="n">
-        <v>1178.1454973717</v>
+        <v>1301.94422532362</v>
       </c>
       <c r="AC5" t="n">
-        <v>1065.704944640135</v>
+        <v>1177.68849574893</v>
       </c>
       <c r="AD5" t="n">
-        <v>861063.813709442</v>
+        <v>951543.8138965725</v>
       </c>
       <c r="AE5" t="n">
-        <v>1178145.4973717</v>
+        <v>1301944.22532362</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.554000636580585e-06</v>
+        <v>2.307447273561551e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.84635416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1065704.944640135</v>
+        <v>1177688.49574893</v>
       </c>
     </row>
     <row r="6">
@@ -9241,28 +9241,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>833.2224290985507</v>
+        <v>923.7024292856811</v>
       </c>
       <c r="AB6" t="n">
-        <v>1140.051686671877</v>
+        <v>1263.850414623797</v>
       </c>
       <c r="AC6" t="n">
-        <v>1031.246753768504</v>
+        <v>1143.230304877299</v>
       </c>
       <c r="AD6" t="n">
-        <v>833222.4290985507</v>
+        <v>923702.4292856811</v>
       </c>
       <c r="AE6" t="n">
-        <v>1140051.686671877</v>
+        <v>1263850.414623797</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.573505255226191e-06</v>
+        <v>2.336408573870084e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.5859375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1031246.753768504</v>
+        <v>1143230.304877299</v>
       </c>
     </row>
     <row r="7">
@@ -9347,28 +9347,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>836.4704867738237</v>
+        <v>926.9504869609541</v>
       </c>
       <c r="AB7" t="n">
-        <v>1144.495822477377</v>
+        <v>1268.294550429297</v>
       </c>
       <c r="AC7" t="n">
-        <v>1035.266747490111</v>
+        <v>1147.250298598906</v>
       </c>
       <c r="AD7" t="n">
-        <v>836470.4867738237</v>
+        <v>926950.4869609541</v>
       </c>
       <c r="AE7" t="n">
-        <v>1144495.822477377</v>
+        <v>1268294.550429297</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.573007688424008e-06</v>
+        <v>2.335669765188745e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.59244791666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1035266.747490111</v>
+        <v>1147250.298598906</v>
       </c>
     </row>
   </sheetData>
@@ -9644,28 +9644,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2295.381963628715</v>
+        <v>2445.749732963784</v>
       </c>
       <c r="AB2" t="n">
-        <v>3140.64286774229</v>
+        <v>3346.382683504339</v>
       </c>
       <c r="AC2" t="n">
-        <v>2840.904320364797</v>
+        <v>3027.008616868153</v>
       </c>
       <c r="AD2" t="n">
-        <v>2295381.963628715</v>
+        <v>2445749.732963784</v>
       </c>
       <c r="AE2" t="n">
-        <v>3140642.86774229</v>
+        <v>3346382.683504339</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.106805161448834e-07</v>
+        <v>1.339103315866447e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.85026041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2840904.320364797</v>
+        <v>3027008.616868153</v>
       </c>
     </row>
     <row r="3">
@@ -9750,28 +9750,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1300.539540057498</v>
+        <v>1409.114778784333</v>
       </c>
       <c r="AB3" t="n">
-        <v>1779.455574461799</v>
+        <v>1928.013006089326</v>
       </c>
       <c r="AC3" t="n">
-        <v>1609.626831916748</v>
+        <v>1744.006150771409</v>
       </c>
       <c r="AD3" t="n">
-        <v>1300539.540057498</v>
+        <v>1409114.778784333</v>
       </c>
       <c r="AE3" t="n">
-        <v>1779455.574461798</v>
+        <v>1928013.006089326</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.280705415370775e-06</v>
+        <v>1.883203646028456e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.78190104166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1609626.831916748</v>
+        <v>1744006.150771409</v>
       </c>
     </row>
     <row r="4">
@@ -9856,28 +9856,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1085.659345959966</v>
+        <v>1177.517661952059</v>
       </c>
       <c r="AB4" t="n">
-        <v>1485.447013052446</v>
+        <v>1611.131613495718</v>
       </c>
       <c r="AC4" t="n">
-        <v>1343.678034964697</v>
+        <v>1457.367473541108</v>
       </c>
       <c r="AD4" t="n">
-        <v>1085659.345959966</v>
+        <v>1177517.661952059</v>
       </c>
       <c r="AE4" t="n">
-        <v>1485447.013052446</v>
+        <v>1611131.613495718</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.418185022197787e-06</v>
+        <v>2.085359499922641e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.37955729166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1343678.034964697</v>
+        <v>1457367.473541108</v>
       </c>
     </row>
     <row r="5">
@@ -9962,28 +9962,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>975.3450328740363</v>
+        <v>1067.118008011558</v>
       </c>
       <c r="AB5" t="n">
-        <v>1334.51010316426</v>
+        <v>1460.077936485334</v>
       </c>
       <c r="AC5" t="n">
-        <v>1207.146331914955</v>
+        <v>1320.730147459427</v>
       </c>
       <c r="AD5" t="n">
-        <v>975345.0328740363</v>
+        <v>1067118.008011558</v>
       </c>
       <c r="AE5" t="n">
-        <v>1334510.10316426</v>
+        <v>1460077.936485334</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.490922459568673e-06</v>
+        <v>2.192315717656728e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.2890625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1207146.331914956</v>
+        <v>1320730.147459427</v>
       </c>
     </row>
     <row r="6">
@@ -10068,28 +10068,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>897.7767029468616</v>
+        <v>989.6349294304036</v>
       </c>
       <c r="AB6" t="n">
-        <v>1228.377692084701</v>
+        <v>1354.062170058424</v>
       </c>
       <c r="AC6" t="n">
-        <v>1111.143049191055</v>
+        <v>1224.832376986239</v>
       </c>
       <c r="AD6" t="n">
-        <v>897776.7029468616</v>
+        <v>989634.9294304036</v>
       </c>
       <c r="AE6" t="n">
-        <v>1228377.692084701</v>
+        <v>1354062.170058425</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.535676459237892e-06</v>
+        <v>2.258123899881857e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.66731770833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1111143.049191055</v>
+        <v>1224832.376986239</v>
       </c>
     </row>
     <row r="7">
@@ -10174,28 +10174,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>874.4311524116889</v>
+        <v>966.1187866946386</v>
       </c>
       <c r="AB7" t="n">
-        <v>1196.435279909477</v>
+        <v>1321.886346108354</v>
       </c>
       <c r="AC7" t="n">
-        <v>1082.249176002378</v>
+        <v>1195.727368514911</v>
       </c>
       <c r="AD7" t="n">
-        <v>874431.1524116889</v>
+        <v>966118.7866946387</v>
       </c>
       <c r="AE7" t="n">
-        <v>1196435.279909477</v>
+        <v>1321886.346108354</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.549131910118833e-06</v>
+        <v>2.277909366433202e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.48828125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1082249.176002378</v>
+        <v>1195727.368514911</v>
       </c>
     </row>
     <row r="8">
@@ -10280,28 +10280,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>876.6706732165342</v>
+        <v>968.358307499484</v>
       </c>
       <c r="AB8" t="n">
-        <v>1199.499491075351</v>
+        <v>1324.950557274228</v>
       </c>
       <c r="AC8" t="n">
-        <v>1085.020943155228</v>
+        <v>1198.499135667761</v>
       </c>
       <c r="AD8" t="n">
-        <v>876670.6732165342</v>
+        <v>968358.307499484</v>
       </c>
       <c r="AE8" t="n">
-        <v>1199499.491075351</v>
+        <v>1324950.557274228</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.550399452593125e-06</v>
+        <v>2.279773214731518e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.47200520833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1085020.943155228</v>
+        <v>1198499.135667761</v>
       </c>
     </row>
   </sheetData>
@@ -10577,28 +10577,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3307.319953804192</v>
+        <v>3487.371260978513</v>
       </c>
       <c r="AB2" t="n">
-        <v>4525.221069453799</v>
+        <v>4771.575211232782</v>
       </c>
       <c r="AC2" t="n">
-        <v>4093.340321772618</v>
+        <v>4316.182770020414</v>
       </c>
       <c r="AD2" t="n">
-        <v>3307319.953804192</v>
+        <v>3487371.260978512</v>
       </c>
       <c r="AE2" t="n">
-        <v>4525221.069453799</v>
+        <v>4771575.211232781</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.431115500789199e-07</v>
+        <v>1.075113360039722e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.22395833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>4093340.321772618</v>
+        <v>4316182.770020414</v>
       </c>
     </row>
     <row r="3">
@@ -10683,28 +10683,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1631.451613440501</v>
+        <v>1751.514205502538</v>
       </c>
       <c r="AB3" t="n">
-        <v>2232.224072074769</v>
+        <v>2396.49900732178</v>
       </c>
       <c r="AC3" t="n">
-        <v>2019.183739582114</v>
+        <v>2167.780505570471</v>
       </c>
       <c r="AD3" t="n">
-        <v>1631451.613440501</v>
+        <v>1751514.205502538</v>
       </c>
       <c r="AE3" t="n">
-        <v>2232224.072074769</v>
+        <v>2396499.007321781</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.143842170676189e-06</v>
+        <v>1.654879404498832e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.78059895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2019183.739582114</v>
+        <v>2167780.505570471</v>
       </c>
     </row>
     <row r="4">
@@ -10789,28 +10789,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1326.152372329392</v>
+        <v>1429.136314829343</v>
       </c>
       <c r="AB4" t="n">
-        <v>1814.500181534616</v>
+        <v>1955.407354993938</v>
       </c>
       <c r="AC4" t="n">
-        <v>1641.326830875951</v>
+        <v>1768.786021464776</v>
       </c>
       <c r="AD4" t="n">
-        <v>1326152.372329392</v>
+        <v>1429136.314829343</v>
       </c>
       <c r="AE4" t="n">
-        <v>1814500.181534616</v>
+        <v>1955407.354993938</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.297151278462228e-06</v>
+        <v>1.876682806665082e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.61653645833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1641326.830875951</v>
+        <v>1768786.021464776</v>
       </c>
     </row>
     <row r="5">
@@ -10895,28 +10895,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1190.750930052064</v>
+        <v>1285.067625997664</v>
       </c>
       <c r="AB5" t="n">
-        <v>1629.237954720729</v>
+        <v>1758.286219072459</v>
       </c>
       <c r="AC5" t="n">
-        <v>1473.745770972013</v>
+        <v>1590.477850094391</v>
       </c>
       <c r="AD5" t="n">
-        <v>1190750.930052064</v>
+        <v>1285067.625997664</v>
       </c>
       <c r="AE5" t="n">
-        <v>1629237.954720729</v>
+        <v>1758286.219072459</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.378370283998969e-06</v>
+        <v>1.994188230894347e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.2265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1473745.770972013</v>
+        <v>1590477.850094391</v>
       </c>
     </row>
     <row r="6">
@@ -11001,28 +11001,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1102.160389277075</v>
+        <v>1196.391744368104</v>
       </c>
       <c r="AB6" t="n">
-        <v>1508.024468493567</v>
+        <v>1636.955965723099</v>
       </c>
       <c r="AC6" t="n">
-        <v>1364.100729746175</v>
+        <v>1480.727185836614</v>
       </c>
       <c r="AD6" t="n">
-        <v>1102160.389277074</v>
+        <v>1196391.744368104</v>
       </c>
       <c r="AE6" t="n">
-        <v>1508024.468493567</v>
+        <v>1636955.965723099</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.43022621916785e-06</v>
+        <v>2.06921197220411e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.41927083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1364100.729746175</v>
+        <v>1480727.185836614</v>
       </c>
     </row>
     <row r="7">
@@ -11107,28 +11107,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1034.882230338256</v>
+        <v>1129.198836775306</v>
       </c>
       <c r="AB7" t="n">
-        <v>1415.971523330582</v>
+        <v>1545.019665212763</v>
       </c>
       <c r="AC7" t="n">
-        <v>1280.833188472425</v>
+        <v>1397.565156813575</v>
       </c>
       <c r="AD7" t="n">
-        <v>1034882.230338256</v>
+        <v>1129198.836775306</v>
       </c>
       <c r="AE7" t="n">
-        <v>1415971.523330582</v>
+        <v>1545019.665212763</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.465706595862348e-06</v>
+        <v>2.120544005731842e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.90169270833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1280833.188472425</v>
+        <v>1397565.156813575</v>
       </c>
     </row>
     <row r="8">
@@ -11213,28 +11213,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>986.7161592119</v>
+        <v>1081.03276564895</v>
       </c>
       <c r="AB8" t="n">
-        <v>1350.068579878414</v>
+        <v>1479.116721760595</v>
       </c>
       <c r="AC8" t="n">
-        <v>1221.21992944797</v>
+        <v>1337.951897789121</v>
       </c>
       <c r="AD8" t="n">
-        <v>986716.1592119001</v>
+        <v>1081032.76564895</v>
       </c>
       <c r="AE8" t="n">
-        <v>1350068.579878414</v>
+        <v>1479116.721760595</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.491681619649301e-06</v>
+        <v>2.158123956006787e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.537109375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1221219.92944797</v>
+        <v>1337951.897789121</v>
       </c>
     </row>
     <row r="9">
@@ -11319,28 +11319,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>960.0418175177471</v>
+        <v>1045.776518255018</v>
       </c>
       <c r="AB9" t="n">
-        <v>1313.571568783572</v>
+        <v>1430.877568680358</v>
       </c>
       <c r="AC9" t="n">
-        <v>1188.206141868143</v>
+        <v>1294.316621774785</v>
       </c>
       <c r="AD9" t="n">
-        <v>960041.8175177471</v>
+        <v>1045776.518255018</v>
       </c>
       <c r="AE9" t="n">
-        <v>1313571.568783572</v>
+        <v>1430877.568680358</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.502504546227198e-06</v>
+        <v>2.173782268621347e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.390625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1188206.141868143</v>
+        <v>1294316.621774785</v>
       </c>
     </row>
     <row r="10">
@@ -11425,28 +11425,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>955.74494234553</v>
+        <v>1041.479643082801</v>
       </c>
       <c r="AB10" t="n">
-        <v>1307.692394608191</v>
+        <v>1424.998394504977</v>
       </c>
       <c r="AC10" t="n">
-        <v>1182.888067824587</v>
+        <v>1288.998547731229</v>
       </c>
       <c r="AD10" t="n">
-        <v>955744.94234553</v>
+        <v>1041479.643082801</v>
       </c>
       <c r="AE10" t="n">
-        <v>1307692.394608191</v>
+        <v>1424998.394504977</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.506739604453332e-06</v>
+        <v>2.179909434427045e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.33203125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1182888.067824587</v>
+        <v>1288998.547731229</v>
       </c>
     </row>
     <row r="11">
@@ -11531,28 +11531,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>958.7716154960582</v>
+        <v>1044.506316233329</v>
       </c>
       <c r="AB11" t="n">
-        <v>1311.833622340139</v>
+        <v>1429.139622236925</v>
       </c>
       <c r="AC11" t="n">
-        <v>1186.634062594048</v>
+        <v>1292.74454250069</v>
       </c>
       <c r="AD11" t="n">
-        <v>958771.6154960581</v>
+        <v>1044506.316233329</v>
       </c>
       <c r="AE11" t="n">
-        <v>1311833.622340139</v>
+        <v>1429139.622236925</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.506363154833231e-06</v>
+        <v>2.179364797466538e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.33854166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1186634.062594048</v>
+        <v>1292744.54250069</v>
       </c>
     </row>
   </sheetData>
@@ -11828,28 +11828,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1565.418027614456</v>
+        <v>1686.85516611244</v>
       </c>
       <c r="AB2" t="n">
-        <v>2141.87400675137</v>
+        <v>2308.029657072754</v>
       </c>
       <c r="AC2" t="n">
-        <v>1937.456557686068</v>
+        <v>2087.754545941698</v>
       </c>
       <c r="AD2" t="n">
-        <v>1565418.027614456</v>
+        <v>1686855.16611244</v>
       </c>
       <c r="AE2" t="n">
-        <v>2141874.00675137</v>
+        <v>2308029.657072754</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.116403954581854e-06</v>
+        <v>1.676486641643188e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1937456.557686068</v>
+        <v>2087754.545941698</v>
       </c>
     </row>
     <row r="3">
@@ -11934,28 +11934,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>992.6856135800203</v>
+        <v>1089.749983523836</v>
       </c>
       <c r="AB3" t="n">
-        <v>1358.236250698616</v>
+        <v>1491.044003833525</v>
       </c>
       <c r="AC3" t="n">
-        <v>1228.60808922849</v>
+        <v>1348.740856801056</v>
       </c>
       <c r="AD3" t="n">
-        <v>992685.6135800204</v>
+        <v>1089749.983523836</v>
       </c>
       <c r="AE3" t="n">
-        <v>1358236.250698616</v>
+        <v>1491044.003833525</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.445776211131994e-06</v>
+        <v>2.171099891594461e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.92317708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1228608.08922849</v>
+        <v>1348740.856801056</v>
       </c>
     </row>
     <row r="4">
@@ -12040,28 +12040,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>843.2305845147765</v>
+        <v>932.1138938793727</v>
       </c>
       <c r="AB4" t="n">
-        <v>1153.745286441012</v>
+        <v>1275.359351568514</v>
       </c>
       <c r="AC4" t="n">
-        <v>1043.633455594761</v>
+        <v>1153.640845032906</v>
       </c>
       <c r="AD4" t="n">
-        <v>843230.5845147765</v>
+        <v>932113.8938793726</v>
       </c>
       <c r="AE4" t="n">
-        <v>1153745.286441013</v>
+        <v>1275359.351568514</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.563983688675955e-06</v>
+        <v>2.348610241886093e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.19140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1043633.455594761</v>
+        <v>1153640.845032906</v>
       </c>
     </row>
     <row r="5">
@@ -12146,28 +12146,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>792.8395981869747</v>
+        <v>881.8081588975913</v>
       </c>
       <c r="AB5" t="n">
-        <v>1084.798115853896</v>
+        <v>1206.528825634045</v>
       </c>
       <c r="AC5" t="n">
-        <v>981.2665062005168</v>
+        <v>1091.379407889374</v>
       </c>
       <c r="AD5" t="n">
-        <v>792839.5981869748</v>
+        <v>881808.1588975913</v>
       </c>
       <c r="AE5" t="n">
-        <v>1084798.115853895</v>
+        <v>1206528.825634046</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.596564561039493e-06</v>
+        <v>2.39753643662625e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.75846354166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>981266.5062005168</v>
+        <v>1091379.407889374</v>
       </c>
     </row>
     <row r="6">
@@ -12252,28 +12252,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>797.8601758427237</v>
+        <v>886.8287365533404</v>
       </c>
       <c r="AB6" t="n">
-        <v>1091.667491694745</v>
+        <v>1213.398201474896</v>
       </c>
       <c r="AC6" t="n">
-        <v>987.4802784523454</v>
+        <v>1097.593180141203</v>
       </c>
       <c r="AD6" t="n">
-        <v>797860.1758427237</v>
+        <v>886828.7365533403</v>
       </c>
       <c r="AE6" t="n">
-        <v>1091667.491694745</v>
+        <v>1213398.201474896</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.595750039230405e-06</v>
+        <v>2.396313281757746e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.771484375</v>
       </c>
       <c r="AH6" t="n">
-        <v>987480.2784523454</v>
+        <v>1097593.180141203</v>
       </c>
     </row>
   </sheetData>
@@ -12549,28 +12549,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1128.648426439325</v>
+        <v>1230.71967099035</v>
       </c>
       <c r="AB2" t="n">
-        <v>1544.266569508684</v>
+        <v>1683.924949368895</v>
       </c>
       <c r="AC2" t="n">
-        <v>1396.883935506517</v>
+        <v>1523.213515604637</v>
       </c>
       <c r="AD2" t="n">
-        <v>1128648.426439325</v>
+        <v>1230719.67099035</v>
       </c>
       <c r="AE2" t="n">
-        <v>1544266.569508684</v>
+        <v>1683924.949368895</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.310979417328052e-06</v>
+        <v>2.01071041917776e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.33463541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1396883.935506517</v>
+        <v>1523213.515604638</v>
       </c>
     </row>
     <row r="3">
@@ -12655,28 +12655,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>770.6223829856619</v>
+        <v>857.0624948985467</v>
       </c>
       <c r="AB3" t="n">
-        <v>1054.3995418611</v>
+        <v>1172.670716448906</v>
       </c>
       <c r="AC3" t="n">
-        <v>953.7691294449277</v>
+        <v>1060.752669124709</v>
       </c>
       <c r="AD3" t="n">
-        <v>770622.382985662</v>
+        <v>857062.4948985467</v>
       </c>
       <c r="AE3" t="n">
-        <v>1054399.5418611</v>
+        <v>1172670.716448906</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.594365632286433e-06</v>
+        <v>2.445353105048076e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.65364583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>953769.1294449277</v>
+        <v>1060752.669124709</v>
       </c>
     </row>
     <row r="4">
@@ -12761,28 +12761,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>735.6512926228704</v>
+        <v>821.920812335163</v>
       </c>
       <c r="AB4" t="n">
-        <v>1006.550553211109</v>
+        <v>1124.588316024067</v>
       </c>
       <c r="AC4" t="n">
-        <v>910.4867811152138</v>
+        <v>1017.259185512344</v>
       </c>
       <c r="AD4" t="n">
-        <v>735651.2926228704</v>
+        <v>821920.812335163</v>
       </c>
       <c r="AE4" t="n">
-        <v>1006550.553211109</v>
+        <v>1124588.316024067</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.628940447434799e-06</v>
+        <v>2.498382115375068e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.19466145833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>910486.7811152139</v>
+        <v>1017259.185512344</v>
       </c>
     </row>
     <row r="5">
@@ -12867,28 +12867,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>740.0435482737473</v>
+        <v>826.3130679860399</v>
       </c>
       <c r="AB5" t="n">
-        <v>1012.560231165282</v>
+        <v>1130.597993978241</v>
       </c>
       <c r="AC5" t="n">
-        <v>915.9229038400769</v>
+        <v>1022.695308237207</v>
       </c>
       <c r="AD5" t="n">
-        <v>740043.5482737473</v>
+        <v>826313.0679860399</v>
       </c>
       <c r="AE5" t="n">
-        <v>1012560.231165282</v>
+        <v>1130597.993978241</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.629046505149978e-06</v>
+        <v>2.498544781050918e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.19140625</v>
       </c>
       <c r="AH5" t="n">
-        <v>915922.9038400769</v>
+        <v>1022695.308237207</v>
       </c>
     </row>
   </sheetData>
@@ -23281,28 +23281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>863.5710910343249</v>
+        <v>955.5049607694011</v>
       </c>
       <c r="AB2" t="n">
-        <v>1181.576064820874</v>
+        <v>1307.364041228491</v>
       </c>
       <c r="AC2" t="n">
-        <v>1068.808103546791</v>
+        <v>1182.591052030599</v>
       </c>
       <c r="AD2" t="n">
-        <v>863571.091034325</v>
+        <v>955504.9607694012</v>
       </c>
       <c r="AE2" t="n">
-        <v>1181576.064820874</v>
+        <v>1307364.041228491</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.474636617733717e-06</v>
+        <v>2.304090627462594e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.21875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1068808.103546791</v>
+        <v>1182591.052030599</v>
       </c>
     </row>
     <row r="3">
@@ -23387,28 +23387,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>692.0231256060961</v>
+        <v>783.8715649780498</v>
       </c>
       <c r="AB3" t="n">
-        <v>946.8565703598706</v>
+        <v>1072.527657175742</v>
       </c>
       <c r="AC3" t="n">
-        <v>856.4899082062668</v>
+        <v>970.1671228769098</v>
       </c>
       <c r="AD3" t="n">
-        <v>692023.1256060961</v>
+        <v>783871.5649780498</v>
       </c>
       <c r="AE3" t="n">
-        <v>946856.5703598706</v>
+        <v>1072527.657175742</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.638546081828217e-06</v>
+        <v>2.560195931936153e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>856489.9082062668</v>
+        <v>970167.1228769098</v>
       </c>
     </row>
     <row r="4">
@@ -23493,28 +23493,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>697.181223553234</v>
+        <v>789.0296629251877</v>
       </c>
       <c r="AB4" t="n">
-        <v>953.914107530366</v>
+        <v>1079.585194346237</v>
       </c>
       <c r="AC4" t="n">
-        <v>862.8738839345257</v>
+        <v>976.5510986051684</v>
       </c>
       <c r="AD4" t="n">
-        <v>697181.223553234</v>
+        <v>789029.6629251877</v>
       </c>
       <c r="AE4" t="n">
-        <v>953914.1075303659</v>
+        <v>1079585.194346237</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.63843637000486e-06</v>
+        <v>2.560024509376264e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>862873.8839345257</v>
+        <v>976551.0986051684</v>
       </c>
     </row>
   </sheetData>
@@ -23790,28 +23790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>637.9965783647772</v>
+        <v>725.4124009287329</v>
       </c>
       <c r="AB2" t="n">
-        <v>872.9350649412514</v>
+        <v>992.5412498871682</v>
       </c>
       <c r="AC2" t="n">
-        <v>789.6233675153162</v>
+        <v>897.8145060383296</v>
       </c>
       <c r="AD2" t="n">
-        <v>637996.5783647771</v>
+        <v>725412.4009287329</v>
       </c>
       <c r="AE2" t="n">
-        <v>872935.0649412514</v>
+        <v>992541.2498871682</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.581557388696872e-06</v>
+        <v>2.577426329480332e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.23502604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>789623.3675153162</v>
+        <v>897814.5060383296</v>
       </c>
     </row>
   </sheetData>
@@ -24087,28 +24087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2092.131893230754</v>
+        <v>2233.013626896925</v>
       </c>
       <c r="AB2" t="n">
-        <v>2862.547154663356</v>
+        <v>3055.307757929024</v>
       </c>
       <c r="AC2" t="n">
-        <v>2589.34967183245</v>
+        <v>2763.713473663533</v>
       </c>
       <c r="AD2" t="n">
-        <v>2092131.893230754</v>
+        <v>2233013.626896925</v>
       </c>
       <c r="AE2" t="n">
-        <v>2862547.154663356</v>
+        <v>3055307.757929024</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.586699961979277e-07</v>
+        <v>1.416320650490307e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2589349.67183245</v>
+        <v>2763713.473663533</v>
       </c>
     </row>
     <row r="3">
@@ -24193,28 +24193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1225.51745469086</v>
+        <v>1324.998551015494</v>
       </c>
       <c r="AB3" t="n">
-        <v>1676.807047522349</v>
+        <v>1812.921472309937</v>
       </c>
       <c r="AC3" t="n">
-        <v>1516.774936320287</v>
+        <v>1639.898791443943</v>
       </c>
       <c r="AD3" t="n">
-        <v>1225517.45469086</v>
+        <v>1324998.551015494</v>
       </c>
       <c r="AE3" t="n">
-        <v>1676807.047522349</v>
+        <v>1812921.472309937</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.319389893072402e-06</v>
+        <v>1.949241302030727e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1516774.936320287</v>
+        <v>1639898.791443943</v>
       </c>
     </row>
     <row r="4">
@@ -24299,28 +24299,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1027.567674112842</v>
+        <v>1118.751574798255</v>
       </c>
       <c r="AB4" t="n">
-        <v>1405.963424807524</v>
+        <v>1530.725260475092</v>
       </c>
       <c r="AC4" t="n">
-        <v>1271.780248825954</v>
+        <v>1384.634990001746</v>
       </c>
       <c r="AD4" t="n">
-        <v>1027567.674112842</v>
+        <v>1118751.574798255</v>
       </c>
       <c r="AE4" t="n">
-        <v>1405963.424807525</v>
+        <v>1530725.260475093</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.451742484227001e-06</v>
+        <v>2.144776479663903e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.08333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1271780.248825954</v>
+        <v>1384634.990001746</v>
       </c>
     </row>
     <row r="5">
@@ -24405,28 +24405,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>923.9195837369813</v>
+        <v>1006.891629637744</v>
       </c>
       <c r="AB5" t="n">
-        <v>1264.147534924244</v>
+        <v>1377.673548593991</v>
       </c>
       <c r="AC5" t="n">
-        <v>1143.499068433282</v>
+        <v>1246.190318693148</v>
       </c>
       <c r="AD5" t="n">
-        <v>923919.5837369813</v>
+        <v>1006891.629637744</v>
       </c>
       <c r="AE5" t="n">
-        <v>1264147.534924244</v>
+        <v>1377673.548593991</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.522054798277881e-06</v>
+        <v>2.248654542781528e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.06119791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1143499.068433282</v>
+        <v>1246190.318693148</v>
       </c>
     </row>
     <row r="6">
@@ -24511,28 +24511,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>859.2427694286521</v>
+        <v>950.4265806055139</v>
       </c>
       <c r="AB6" t="n">
-        <v>1175.65386424792</v>
+        <v>1300.41557744594</v>
       </c>
       <c r="AC6" t="n">
-        <v>1063.45110948466</v>
+        <v>1176.305739879224</v>
       </c>
       <c r="AD6" t="n">
-        <v>859242.7694286521</v>
+        <v>950426.5806055139</v>
       </c>
       <c r="AE6" t="n">
-        <v>1175653.86424792</v>
+        <v>1300415.57744594</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.557309431933644e-06</v>
+        <v>2.300739061823698e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.58268229166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1063451.10948466</v>
+        <v>1176305.739879224</v>
       </c>
     </row>
     <row r="7">
@@ -24617,28 +24617,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>853.9127601122959</v>
+        <v>945.0965712891575</v>
       </c>
       <c r="AB7" t="n">
-        <v>1168.361110357866</v>
+        <v>1293.122823555886</v>
       </c>
       <c r="AC7" t="n">
-        <v>1056.854365790428</v>
+        <v>1169.708996184993</v>
       </c>
       <c r="AD7" t="n">
-        <v>853912.760112296</v>
+        <v>945096.5712891575</v>
       </c>
       <c r="AE7" t="n">
-        <v>1168361.110357866</v>
+        <v>1293122.823555886</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.562627169971106e-06</v>
+        <v>2.308595385925032e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.51432291666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1056854.365790428</v>
+        <v>1169708.996184993</v>
       </c>
     </row>
     <row r="8">
@@ -24723,28 +24723,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>857.6166315899868</v>
+        <v>948.8004427668483</v>
       </c>
       <c r="AB8" t="n">
-        <v>1173.42891071692</v>
+        <v>1298.190623914939</v>
       </c>
       <c r="AC8" t="n">
-        <v>1061.438502395916</v>
+        <v>1174.293132790481</v>
       </c>
       <c r="AD8" t="n">
-        <v>857616.6315899868</v>
+        <v>948800.4427668483</v>
       </c>
       <c r="AE8" t="n">
-        <v>1173428.910716919</v>
+        <v>1298190.623914939</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.562528693340783e-06</v>
+        <v>2.308449898441674e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.51432291666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1061438.502395916</v>
+        <v>1174293.132790481</v>
       </c>
     </row>
   </sheetData>
@@ -25020,28 +25020,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3021.366830147593</v>
+        <v>3191.946486961727</v>
       </c>
       <c r="AB2" t="n">
-        <v>4133.967390305351</v>
+        <v>4367.362002201801</v>
       </c>
       <c r="AC2" t="n">
-        <v>3739.427344634125</v>
+        <v>3950.547102342564</v>
       </c>
       <c r="AD2" t="n">
-        <v>3021366.830147593</v>
+        <v>3191946.486961727</v>
       </c>
       <c r="AE2" t="n">
-        <v>4133967.390305351</v>
+        <v>4367362.002201801</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.819365688929093e-07</v>
+        <v>1.135504057533389e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.50520833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3739427.344634125</v>
+        <v>3950547.102342564</v>
       </c>
     </row>
     <row r="3">
@@ -25126,28 +25126,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1547.755401989567</v>
+        <v>1658.546927572732</v>
       </c>
       <c r="AB3" t="n">
-        <v>2117.707223151348</v>
+        <v>2269.297076231383</v>
       </c>
       <c r="AC3" t="n">
-        <v>1915.596217994538</v>
+        <v>2052.718548254309</v>
       </c>
       <c r="AD3" t="n">
-        <v>1547755.401989566</v>
+        <v>1658546.927572732</v>
       </c>
       <c r="AE3" t="n">
-        <v>2117707.223151349</v>
+        <v>2269297.076231383</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.17717513799958e-06</v>
+        <v>1.709457261371564e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.240234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1915596.217994538</v>
+        <v>2052718.548254309</v>
       </c>
     </row>
     <row r="4">
@@ -25232,28 +25232,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1268.506993199652</v>
+        <v>1370.684195087539</v>
       </c>
       <c r="AB4" t="n">
-        <v>1735.627230674663</v>
+        <v>1875.430586037678</v>
       </c>
       <c r="AC4" t="n">
-        <v>1569.98140374719</v>
+        <v>1696.4421230896</v>
       </c>
       <c r="AD4" t="n">
-        <v>1268506.993199652</v>
+        <v>1370684.195087539</v>
       </c>
       <c r="AE4" t="n">
-        <v>1735627.230674663</v>
+        <v>1875430.586037677</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.325211672887073e-06</v>
+        <v>1.924431330516235e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.310546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1569981.40374719</v>
+        <v>1696442.1230896</v>
       </c>
     </row>
     <row r="5">
@@ -25338,28 +25338,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1131.67756796569</v>
+        <v>1233.854680345026</v>
       </c>
       <c r="AB5" t="n">
-        <v>1548.411174581349</v>
+        <v>1688.214407474815</v>
       </c>
       <c r="AC5" t="n">
-        <v>1400.632985288037</v>
+        <v>1527.09359384922</v>
       </c>
       <c r="AD5" t="n">
-        <v>1131677.56796569</v>
+        <v>1233854.680345026</v>
       </c>
       <c r="AE5" t="n">
-        <v>1548411.174581349</v>
+        <v>1688214.407474815</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.405398129284465e-06</v>
+        <v>2.040875617969598e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.97916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1400632.985288037</v>
+        <v>1527093.59384922</v>
       </c>
     </row>
     <row r="6">
@@ -25444,28 +25444,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1054.14845373707</v>
+        <v>1147.796672784252</v>
       </c>
       <c r="AB6" t="n">
-        <v>1442.332420150628</v>
+        <v>1570.466044918821</v>
       </c>
       <c r="AC6" t="n">
-        <v>1304.678238297717</v>
+        <v>1420.582969754706</v>
       </c>
       <c r="AD6" t="n">
-        <v>1054148.453737071</v>
+        <v>1147796.672784252</v>
       </c>
       <c r="AE6" t="n">
-        <v>1442332.420150628</v>
+        <v>1570466.044918821</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.455218116986986e-06</v>
+        <v>2.113222660470209e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.22721354166666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1304678.238297717</v>
+        <v>1420582.969754706</v>
       </c>
     </row>
     <row r="7">
@@ -25550,28 +25550,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>988.6648713622797</v>
+        <v>1082.398341755481</v>
       </c>
       <c r="AB7" t="n">
-        <v>1352.734893813675</v>
+        <v>1480.985163234518</v>
       </c>
       <c r="AC7" t="n">
-        <v>1223.631774123445</v>
+        <v>1339.642017831146</v>
       </c>
       <c r="AD7" t="n">
-        <v>988664.8713622796</v>
+        <v>1082398.341755481</v>
       </c>
       <c r="AE7" t="n">
-        <v>1352734.893813676</v>
+        <v>1480985.163234518</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.489285499054044e-06</v>
+        <v>2.162694257151578e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.7421875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1223631.774123445</v>
+        <v>1339642.017831146</v>
       </c>
     </row>
     <row r="8">
@@ -25656,28 +25656,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>942.3382852728568</v>
+        <v>1027.542862333903</v>
       </c>
       <c r="AB8" t="n">
-        <v>1289.348814941392</v>
+        <v>1405.929476236961</v>
       </c>
       <c r="AC8" t="n">
-        <v>1166.295173655812</v>
+        <v>1271.749540259317</v>
       </c>
       <c r="AD8" t="n">
-        <v>942338.2852728567</v>
+        <v>1027542.862333903</v>
       </c>
       <c r="AE8" t="n">
-        <v>1289348.814941392</v>
+        <v>1405929.476236961</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.512345036219211e-06</v>
+        <v>2.196180602537575e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.42643229166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1166295.173655812</v>
+        <v>1271749.540259317</v>
       </c>
     </row>
     <row r="9">
@@ -25762,28 +25762,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>934.945758001826</v>
+        <v>1020.150335062872</v>
       </c>
       <c r="AB9" t="n">
-        <v>1279.234032993882</v>
+        <v>1395.81469428945</v>
       </c>
       <c r="AC9" t="n">
-        <v>1157.145732301187</v>
+        <v>1262.600098904692</v>
       </c>
       <c r="AD9" t="n">
-        <v>934945.758001826</v>
+        <v>1020150.335062872</v>
       </c>
       <c r="AE9" t="n">
-        <v>1279234.032993882</v>
+        <v>1395814.694289451</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.516520425664756e-06</v>
+        <v>2.202243973718579e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.36783854166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1157145.732301187</v>
+        <v>1262600.098904692</v>
       </c>
     </row>
     <row r="10">
@@ -25868,28 +25868,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>938.1467097901627</v>
+        <v>1023.351286851209</v>
       </c>
       <c r="AB10" t="n">
-        <v>1283.61371644671</v>
+        <v>1400.194377742279</v>
       </c>
       <c r="AC10" t="n">
-        <v>1161.107424912202</v>
+        <v>1266.561791515707</v>
       </c>
       <c r="AD10" t="n">
-        <v>938146.7097901627</v>
+        <v>1023351.286851209</v>
       </c>
       <c r="AE10" t="n">
-        <v>1283613.716446711</v>
+        <v>1400194.377742279</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.516520425664756e-06</v>
+        <v>2.202243973718579e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.36783854166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1161107.424912202</v>
+        <v>1266561.791515708</v>
       </c>
     </row>
   </sheetData>
@@ -26165,28 +26165,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>627.5434222657357</v>
+        <v>727.0773769948196</v>
       </c>
       <c r="AB2" t="n">
-        <v>858.6325956058429</v>
+        <v>994.8193435943481</v>
       </c>
       <c r="AC2" t="n">
-        <v>776.6859057796373</v>
+        <v>899.8751816794205</v>
       </c>
       <c r="AD2" t="n">
-        <v>627543.4222657357</v>
+        <v>727077.3769948196</v>
       </c>
       <c r="AE2" t="n">
-        <v>858632.5956058429</v>
+        <v>994819.3435943481</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.471509066583676e-06</v>
+        <v>2.452917942894803e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.97265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>776685.9057796373</v>
+        <v>899875.1816794205</v>
       </c>
     </row>
   </sheetData>
@@ -26462,28 +26462,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1267.468464838725</v>
+        <v>1378.493446299555</v>
       </c>
       <c r="AB2" t="n">
-        <v>1734.206270354605</v>
+        <v>1886.115548065806</v>
       </c>
       <c r="AC2" t="n">
-        <v>1568.696057885749</v>
+        <v>1706.107327338203</v>
       </c>
       <c r="AD2" t="n">
-        <v>1267468.464838725</v>
+        <v>1378493.446299555</v>
       </c>
       <c r="AE2" t="n">
-        <v>1734206.270354605</v>
+        <v>1886115.548065806</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.240764523911978e-06</v>
+        <v>1.888327744939189e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.41861979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1568696.057885749</v>
+        <v>1706107.327338203</v>
       </c>
     </row>
     <row r="3">
@@ -26568,28 +26568,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>849.0209422932029</v>
+        <v>936.3036416811569</v>
       </c>
       <c r="AB3" t="n">
-        <v>1161.667909406012</v>
+        <v>1281.091949349543</v>
       </c>
       <c r="AC3" t="n">
-        <v>1050.799954543452</v>
+        <v>1158.826331727465</v>
       </c>
       <c r="AD3" t="n">
-        <v>849020.9422932029</v>
+        <v>936303.6416811569</v>
       </c>
       <c r="AE3" t="n">
-        <v>1161667.909406012</v>
+        <v>1281091.949349543</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.543744338165754e-06</v>
+        <v>2.349434730500064e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.03776041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1050799.954543452</v>
+        <v>1158826.331727465</v>
       </c>
     </row>
     <row r="4">
@@ -26674,28 +26674,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>760.1625333337728</v>
+        <v>839.5880326004826</v>
       </c>
       <c r="AB4" t="n">
-        <v>1040.087914111387</v>
+        <v>1148.761386213826</v>
       </c>
       <c r="AC4" t="n">
-        <v>940.8233833611512</v>
+        <v>1039.12521181031</v>
       </c>
       <c r="AD4" t="n">
-        <v>760162.5333337728</v>
+        <v>839588.0326004826</v>
       </c>
       <c r="AE4" t="n">
-        <v>1040087.914111387</v>
+        <v>1148761.386213826</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.616902623773772e-06</v>
+        <v>2.460774809800724e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.04166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>940823.3833611512</v>
+        <v>1039125.21181031</v>
       </c>
     </row>
     <row r="5">
@@ -26780,28 +26780,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>762.381789540937</v>
+        <v>841.8072888076468</v>
       </c>
       <c r="AB5" t="n">
-        <v>1043.124398360703</v>
+        <v>1151.797870463143</v>
       </c>
       <c r="AC5" t="n">
-        <v>943.570069815445</v>
+        <v>1041.871898264604</v>
       </c>
       <c r="AD5" t="n">
-        <v>762381.7895409371</v>
+        <v>841807.2888076468</v>
       </c>
       <c r="AE5" t="n">
-        <v>1043124.398360703</v>
+        <v>1151797.870463143</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.618574813159098e-06</v>
+        <v>2.463319725899025e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.01888020833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>943570.069815445</v>
+        <v>1041871.898264604</v>
       </c>
     </row>
   </sheetData>
@@ -27077,28 +27077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1726.827523764341</v>
+        <v>1857.401721358269</v>
       </c>
       <c r="AB2" t="n">
-        <v>2362.721600268047</v>
+        <v>2541.378977943098</v>
       </c>
       <c r="AC2" t="n">
-        <v>2137.226766839057</v>
+        <v>2298.833335136006</v>
       </c>
       <c r="AD2" t="n">
-        <v>1726827.523764341</v>
+        <v>1857401.721358269</v>
       </c>
       <c r="AE2" t="n">
-        <v>2362721.600268046</v>
+        <v>2541378.977943098</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.060561119488625e-06</v>
+        <v>1.583323036947826e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.88541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2137226.766839057</v>
+        <v>2298833.335136006</v>
       </c>
     </row>
     <row r="3">
@@ -27183,28 +27183,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1073.724903440247</v>
+        <v>1171.54896507603</v>
       </c>
       <c r="AB3" t="n">
-        <v>1469.117782286522</v>
+        <v>1602.964979109612</v>
       </c>
       <c r="AC3" t="n">
-        <v>1328.907243064853</v>
+        <v>1449.980251278868</v>
       </c>
       <c r="AD3" t="n">
-        <v>1073724.903440247</v>
+        <v>1171548.96507603</v>
       </c>
       <c r="AE3" t="n">
-        <v>1469117.782286522</v>
+        <v>1602964.979109612</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.400262669715722e-06</v>
+        <v>2.09046711405749e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.39192708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1328907.243064853</v>
+        <v>1449980.251278868</v>
       </c>
     </row>
     <row r="4">
@@ -27289,28 +27289,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>901.5474691661195</v>
+        <v>991.2053096488705</v>
       </c>
       <c r="AB4" t="n">
-        <v>1233.537020780354</v>
+        <v>1356.210833553616</v>
       </c>
       <c r="AC4" t="n">
-        <v>1115.809978797159</v>
+        <v>1226.775975053118</v>
       </c>
       <c r="AD4" t="n">
-        <v>901547.4691661196</v>
+        <v>991205.3096488705</v>
       </c>
       <c r="AE4" t="n">
-        <v>1233537.020780355</v>
+        <v>1356210.833553616</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.525537678611674e-06</v>
+        <v>2.277491514531878e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.47135416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1115809.978797159</v>
+        <v>1226775.975053118</v>
       </c>
     </row>
     <row r="5">
@@ -27395,28 +27395,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>820.7948793963049</v>
+        <v>910.5379712250764</v>
       </c>
       <c r="AB5" t="n">
-        <v>1123.047764904466</v>
+        <v>1245.838222330377</v>
       </c>
       <c r="AC5" t="n">
-        <v>1015.865662429421</v>
+        <v>1126.937170936092</v>
       </c>
       <c r="AD5" t="n">
-        <v>820794.8793963048</v>
+        <v>910537.9712250764</v>
       </c>
       <c r="AE5" t="n">
-        <v>1123047.764904466</v>
+        <v>1245838.222330377</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.577861377106369e-06</v>
+        <v>2.355606123565357e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.75846354166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1015865.662429421</v>
+        <v>1126937.170936092</v>
       </c>
     </row>
     <row r="6">
@@ -27501,28 +27501,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>813.2016951393443</v>
+        <v>902.9447869681157</v>
       </c>
       <c r="AB6" t="n">
-        <v>1112.658435216445</v>
+        <v>1235.448892642356</v>
       </c>
       <c r="AC6" t="n">
-        <v>1006.467875785309</v>
+        <v>1117.53938429198</v>
       </c>
       <c r="AD6" t="n">
-        <v>813201.6951393443</v>
+        <v>902944.7869681157</v>
       </c>
       <c r="AE6" t="n">
-        <v>1112658.435216445</v>
+        <v>1235448.892642356</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.586112421868994e-06</v>
+        <v>2.367924196528328e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.65104166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1006467.875785309</v>
+        <v>1117539.38429198</v>
       </c>
     </row>
     <row r="7">
@@ -27607,28 +27607,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>817.2323280308776</v>
+        <v>906.975419859649</v>
       </c>
       <c r="AB7" t="n">
-        <v>1118.173324957615</v>
+        <v>1240.963782383526</v>
       </c>
       <c r="AC7" t="n">
-        <v>1011.456432189777</v>
+        <v>1122.527940696449</v>
       </c>
       <c r="AD7" t="n">
-        <v>817232.3280308776</v>
+        <v>906975.419859649</v>
       </c>
       <c r="AE7" t="n">
-        <v>1118173.324957615</v>
+        <v>1240963.782383526</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.586112421868994e-06</v>
+        <v>2.367924196528328e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.65104166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1011456.432189777</v>
+        <v>1122527.940696449</v>
       </c>
     </row>
   </sheetData>
